--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fat4-Dchs1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fat4-Dchs1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,10 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Fat4</t>
   </si>
   <si>
     <t>Dchs1</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.90961833333333</v>
+        <v>20.734727</v>
       </c>
       <c r="H2">
-        <v>65.728855</v>
+        <v>62.204181</v>
       </c>
       <c r="I2">
-        <v>0.6422049224355262</v>
+        <v>0.6077509832105127</v>
       </c>
       <c r="J2">
-        <v>0.6422049224355262</v>
+        <v>0.6077509832105127</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.51863466666667</v>
+        <v>13.78989133333334</v>
       </c>
       <c r="N2">
-        <v>40.55590400000001</v>
+        <v>41.369674</v>
       </c>
       <c r="O2">
-        <v>0.5370474071126666</v>
+        <v>0.5314049574037741</v>
       </c>
       <c r="P2">
-        <v>0.5370474071126666</v>
+        <v>0.5314049574037741</v>
       </c>
       <c r="Q2">
-        <v>296.1881259344356</v>
+        <v>285.9296321563327</v>
       </c>
       <c r="R2">
-        <v>2665.69313340992</v>
+        <v>2573.366689406994</v>
       </c>
       <c r="S2">
-        <v>0.3448944884289905</v>
+        <v>0.3229618853450844</v>
       </c>
       <c r="T2">
-        <v>0.3448944884289905</v>
+        <v>0.3229618853450844</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -596,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.90961833333333</v>
+        <v>20.734727</v>
       </c>
       <c r="H3">
-        <v>65.728855</v>
+        <v>62.204181</v>
       </c>
       <c r="I3">
-        <v>0.6422049224355262</v>
+        <v>0.6077509832105127</v>
       </c>
       <c r="J3">
-        <v>0.6422049224355262</v>
+        <v>0.6077509832105127</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +626,22 @@
         <v>34.257576</v>
       </c>
       <c r="O3">
-        <v>0.4536439963159276</v>
+        <v>0.4400480824440761</v>
       </c>
       <c r="P3">
-        <v>0.4536439963159277</v>
+        <v>0.4400480824440762</v>
       </c>
       <c r="Q3">
-        <v>250.1901383950533</v>
+        <v>236.773828680584</v>
       </c>
       <c r="R3">
-        <v>2251.71124555548</v>
+        <v>2130.964458125256</v>
       </c>
       <c r="S3">
-        <v>0.2913324074674124</v>
+        <v>0.267439654765288</v>
       </c>
       <c r="T3">
-        <v>0.2913324074674125</v>
+        <v>0.267439654765288</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,60 +664,60 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.90961833333333</v>
+        <v>20.734727</v>
       </c>
       <c r="H4">
-        <v>65.728855</v>
+        <v>62.204181</v>
       </c>
       <c r="I4">
-        <v>0.6422049224355262</v>
+        <v>0.6077509832105127</v>
       </c>
       <c r="J4">
-        <v>0.6422049224355262</v>
+        <v>0.6077509832105127</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2343173333333333</v>
+        <v>0.142336</v>
       </c>
       <c r="N4">
-        <v>0.702952</v>
+        <v>0.427008</v>
       </c>
       <c r="O4">
-        <v>0.00930859657140581</v>
+        <v>0.005485036407371031</v>
       </c>
       <c r="P4">
-        <v>0.00930859657140581</v>
+        <v>0.005485036407371031</v>
       </c>
       <c r="Q4">
-        <v>5.133803342217777</v>
+        <v>2.951298102272</v>
       </c>
       <c r="R4">
-        <v>46.20423007996</v>
+        <v>26.561682920448</v>
       </c>
       <c r="S4">
-        <v>0.005978026539123274</v>
+        <v>0.003333536269525202</v>
       </c>
       <c r="T4">
-        <v>0.005978026539123274</v>
+        <v>0.003333536269525203</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.79980633333333</v>
+        <v>20.734727</v>
       </c>
       <c r="H5">
-        <v>32.399419</v>
+        <v>62.204181</v>
       </c>
       <c r="I5">
-        <v>0.3165590875704608</v>
+        <v>0.6077509832105127</v>
       </c>
       <c r="J5">
-        <v>0.3165590875704607</v>
+        <v>0.6077509832105127</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,43 +744,43 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.51863466666667</v>
+        <v>0.3596363333333333</v>
       </c>
       <c r="N5">
-        <v>40.55590400000001</v>
+        <v>1.078909</v>
       </c>
       <c r="O5">
-        <v>0.5370474071126666</v>
+        <v>0.01385888588794653</v>
       </c>
       <c r="P5">
-        <v>0.5370474071126666</v>
+        <v>0.01385888588794653</v>
       </c>
       <c r="Q5">
-        <v>145.9986362910863</v>
+        <v>7.456961190947665</v>
       </c>
       <c r="R5">
-        <v>1313.987726619776</v>
+        <v>67.112650718529</v>
       </c>
       <c r="S5">
-        <v>0.1700072371776676</v>
+        <v>0.0084227515246018</v>
       </c>
       <c r="T5">
-        <v>0.1700072371776675</v>
+        <v>0.008422751524601802</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -782,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.79980633333333</v>
+        <v>20.734727</v>
       </c>
       <c r="H6">
-        <v>32.399419</v>
+        <v>62.204181</v>
       </c>
       <c r="I6">
-        <v>0.3165590875704608</v>
+        <v>0.6077509832105127</v>
       </c>
       <c r="J6">
-        <v>0.3165590875704607</v>
+        <v>0.6077509832105127</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.419192</v>
+        <v>0.2388176666666667</v>
       </c>
       <c r="N6">
-        <v>34.257576</v>
+        <v>0.716453</v>
       </c>
       <c r="O6">
-        <v>0.4536439963159276</v>
+        <v>0.009203037856832184</v>
       </c>
       <c r="P6">
-        <v>0.4536439963159277</v>
+        <v>0.009203037856832184</v>
       </c>
       <c r="Q6">
-        <v>123.3250620831493</v>
+        <v>4.951819121110334</v>
       </c>
       <c r="R6">
-        <v>1109.925558748344</v>
+        <v>44.566372089993</v>
       </c>
       <c r="S6">
-        <v>0.1436051295555875</v>
+        <v>0.005593155306013329</v>
       </c>
       <c r="T6">
-        <v>0.1436051295555875</v>
+        <v>0.005593155306013329</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,10 +856,10 @@
         <v>32.399419</v>
       </c>
       <c r="I7">
-        <v>0.3165590875704608</v>
+        <v>0.3165507275579976</v>
       </c>
       <c r="J7">
-        <v>0.3165590875704607</v>
+        <v>0.3165507275579976</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,42 +868,42 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2343173333333333</v>
+        <v>13.78989133333334</v>
       </c>
       <c r="N7">
-        <v>0.702952</v>
+        <v>41.369674</v>
       </c>
       <c r="O7">
-        <v>0.00930859657140581</v>
+        <v>0.5314049574037741</v>
       </c>
       <c r="P7">
-        <v>0.00930859657140581</v>
+        <v>0.5314049574037741</v>
       </c>
       <c r="Q7">
-        <v>2.530581820543111</v>
+        <v>148.9281557577118</v>
       </c>
       <c r="R7">
-        <v>22.775236384888</v>
+        <v>1340.353401819406</v>
       </c>
       <c r="S7">
-        <v>0.002946720837205743</v>
+        <v>0.1682166258940914</v>
       </c>
       <c r="T7">
-        <v>0.002946720837205742</v>
+        <v>0.1682166258940914</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -906,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.406817</v>
+        <v>10.79980633333333</v>
       </c>
       <c r="H8">
-        <v>4.220451</v>
+        <v>32.399419</v>
       </c>
       <c r="I8">
-        <v>0.04123598999401312</v>
+        <v>0.3165507275579976</v>
       </c>
       <c r="J8">
-        <v>0.04123598999401312</v>
+        <v>0.3165507275579976</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,42 +930,42 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.51863466666667</v>
+        <v>11.419192</v>
       </c>
       <c r="N8">
-        <v>40.55590400000001</v>
+        <v>34.257576</v>
       </c>
       <c r="O8">
-        <v>0.5370474071126666</v>
+        <v>0.4400480824440761</v>
       </c>
       <c r="P8">
-        <v>0.5370474071126666</v>
+        <v>0.4400480824440762</v>
       </c>
       <c r="Q8">
-        <v>19.018245065856</v>
+        <v>123.3250620831493</v>
       </c>
       <c r="R8">
-        <v>171.164205592704</v>
+        <v>1109.925558748344</v>
       </c>
       <c r="S8">
-        <v>0.02214568150600861</v>
+        <v>0.139297540658174</v>
       </c>
       <c r="T8">
-        <v>0.02214568150600861</v>
+        <v>0.139297540658174</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -968,57 +974,57 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.406817</v>
+        <v>10.79980633333333</v>
       </c>
       <c r="H9">
-        <v>4.220451</v>
+        <v>32.399419</v>
       </c>
       <c r="I9">
-        <v>0.04123598999401312</v>
+        <v>0.3165507275579976</v>
       </c>
       <c r="J9">
-        <v>0.04123598999401312</v>
+        <v>0.3165507275579976</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>11.419192</v>
+        <v>0.142336</v>
       </c>
       <c r="N9">
-        <v>34.257576</v>
+        <v>0.427008</v>
       </c>
       <c r="O9">
-        <v>0.4536439963159276</v>
+        <v>0.005485036407371031</v>
       </c>
       <c r="P9">
-        <v>0.4536439963159277</v>
+        <v>0.005485036407371031</v>
       </c>
       <c r="Q9">
-        <v>16.064713431864</v>
+        <v>1.537201234261333</v>
       </c>
       <c r="R9">
-        <v>144.582420886776</v>
+        <v>13.834811108352</v>
       </c>
       <c r="S9">
-        <v>0.01870645929292772</v>
+        <v>0.001736292265435405</v>
       </c>
       <c r="T9">
-        <v>0.01870645929292772</v>
+        <v>0.001736292265435405</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1030,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.406817</v>
+        <v>10.79980633333333</v>
       </c>
       <c r="H10">
-        <v>4.220451</v>
+        <v>32.399419</v>
       </c>
       <c r="I10">
-        <v>0.04123598999401312</v>
+        <v>0.3165507275579976</v>
       </c>
       <c r="J10">
-        <v>0.04123598999401312</v>
+        <v>0.3165507275579976</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1054,710 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2343173333333333</v>
+        <v>0.3596363333333333</v>
       </c>
       <c r="N10">
-        <v>0.702952</v>
+        <v>1.078909</v>
       </c>
       <c r="O10">
-        <v>0.00930859657140581</v>
+        <v>0.01385888588794653</v>
       </c>
       <c r="P10">
-        <v>0.00930859657140581</v>
+        <v>0.01385888588794653</v>
       </c>
       <c r="Q10">
-        <v>0.329641607928</v>
+        <v>3.884002750430111</v>
       </c>
       <c r="R10">
-        <v>2.966774471352</v>
+        <v>34.956024753871</v>
       </c>
       <c r="S10">
-        <v>0.0003838491950767949</v>
+        <v>0.004387040410972739</v>
       </c>
       <c r="T10">
-        <v>0.0003838491950767948</v>
+        <v>0.004387040410972739</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>10.79980633333333</v>
+      </c>
+      <c r="H11">
+        <v>32.399419</v>
+      </c>
+      <c r="I11">
+        <v>0.3165507275579976</v>
+      </c>
+      <c r="J11">
+        <v>0.3165507275579976</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.2388176666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.716453</v>
+      </c>
+      <c r="O11">
+        <v>0.009203037856832184</v>
+      </c>
+      <c r="P11">
+        <v>0.009203037856832184</v>
+      </c>
+      <c r="Q11">
+        <v>2.579184548978556</v>
+      </c>
+      <c r="R11">
+        <v>23.212660940807</v>
+      </c>
+      <c r="S11">
+        <v>0.002913228329324022</v>
+      </c>
+      <c r="T11">
+        <v>0.002913228329324022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.57469</v>
+      </c>
+      <c r="H12">
+        <v>7.72407</v>
+      </c>
+      <c r="I12">
+        <v>0.07546616740901749</v>
+      </c>
+      <c r="J12">
+        <v>0.07546616740901749</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>13.78989133333334</v>
+      </c>
+      <c r="N12">
+        <v>41.369674</v>
+      </c>
+      <c r="O12">
+        <v>0.5314049574037741</v>
+      </c>
+      <c r="P12">
+        <v>0.5314049574037741</v>
+      </c>
+      <c r="Q12">
+        <v>35.50469531702</v>
+      </c>
+      <c r="R12">
+        <v>319.54225785318</v>
+      </c>
+      <c r="S12">
+        <v>0.04010309547741502</v>
+      </c>
+      <c r="T12">
+        <v>0.04010309547741502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.57469</v>
+      </c>
+      <c r="H13">
+        <v>7.72407</v>
+      </c>
+      <c r="I13">
+        <v>0.07546616740901749</v>
+      </c>
+      <c r="J13">
+        <v>0.07546616740901749</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>11.419192</v>
+      </c>
+      <c r="N13">
+        <v>34.257576</v>
+      </c>
+      <c r="O13">
+        <v>0.4400480824440761</v>
+      </c>
+      <c r="P13">
+        <v>0.4400480824440762</v>
+      </c>
+      <c r="Q13">
+        <v>29.40087945048</v>
+      </c>
+      <c r="R13">
+        <v>264.60791505432</v>
+      </c>
+      <c r="S13">
+        <v>0.03320874225774178</v>
+      </c>
+      <c r="T13">
+        <v>0.03320874225774178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.57469</v>
+      </c>
+      <c r="H14">
+        <v>7.72407</v>
+      </c>
+      <c r="I14">
+        <v>0.07546616740901749</v>
+      </c>
+      <c r="J14">
+        <v>0.07546616740901749</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.142336</v>
+      </c>
+      <c r="N14">
+        <v>0.427008</v>
+      </c>
+      <c r="O14">
+        <v>0.005485036407371031</v>
+      </c>
+      <c r="P14">
+        <v>0.005485036407371031</v>
+      </c>
+      <c r="Q14">
+        <v>0.3664710758399999</v>
+      </c>
+      <c r="R14">
+        <v>3.29823968256</v>
+      </c>
+      <c r="S14">
+        <v>0.000413934675763218</v>
+      </c>
+      <c r="T14">
+        <v>0.0004139346757632181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.57469</v>
+      </c>
+      <c r="H15">
+        <v>7.72407</v>
+      </c>
+      <c r="I15">
+        <v>0.07546616740901749</v>
+      </c>
+      <c r="J15">
+        <v>0.07546616740901749</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.3596363333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.078909</v>
+      </c>
+      <c r="O15">
+        <v>0.01385888588794653</v>
+      </c>
+      <c r="P15">
+        <v>0.01385888588794653</v>
+      </c>
+      <c r="Q15">
+        <v>0.9259520710699999</v>
+      </c>
+      <c r="R15">
+        <v>8.33356863963</v>
+      </c>
+      <c r="S15">
+        <v>0.001045877002522243</v>
+      </c>
+      <c r="T15">
+        <v>0.001045877002522243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.57469</v>
+      </c>
+      <c r="H16">
+        <v>7.72407</v>
+      </c>
+      <c r="I16">
+        <v>0.07546616740901749</v>
+      </c>
+      <c r="J16">
+        <v>0.07546616740901749</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.2388176666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.716453</v>
+      </c>
+      <c r="O16">
+        <v>0.009203037856832184</v>
+      </c>
+      <c r="P16">
+        <v>0.009203037856832184</v>
+      </c>
+      <c r="Q16">
+        <v>0.6148814581900001</v>
+      </c>
+      <c r="R16">
+        <v>5.53393312371</v>
+      </c>
+      <c r="S16">
+        <v>0.0006945179955752231</v>
+      </c>
+      <c r="T16">
+        <v>0.0006945179955752231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.007919333333333334</v>
+      </c>
+      <c r="H17">
+        <v>0.023758</v>
+      </c>
+      <c r="I17">
+        <v>0.0002321218224722766</v>
+      </c>
+      <c r="J17">
+        <v>0.0002321218224722766</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>13.78989133333334</v>
+      </c>
+      <c r="N17">
+        <v>41.369674</v>
+      </c>
+      <c r="O17">
+        <v>0.5314049574037741</v>
+      </c>
+      <c r="P17">
+        <v>0.5314049574037741</v>
+      </c>
+      <c r="Q17">
+        <v>0.1092067460991111</v>
+      </c>
+      <c r="R17">
+        <v>0.9828607148920001</v>
+      </c>
+      <c r="S17">
+        <v>0.0001233506871833666</v>
+      </c>
+      <c r="T17">
+        <v>0.0001233506871833666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.007919333333333334</v>
+      </c>
+      <c r="H18">
+        <v>0.023758</v>
+      </c>
+      <c r="I18">
+        <v>0.0002321218224722766</v>
+      </c>
+      <c r="J18">
+        <v>0.0002321218224722766</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>11.419192</v>
+      </c>
+      <c r="N18">
+        <v>34.257576</v>
+      </c>
+      <c r="O18">
+        <v>0.4400480824440761</v>
+      </c>
+      <c r="P18">
+        <v>0.4400480824440762</v>
+      </c>
+      <c r="Q18">
+        <v>0.09043238784533335</v>
+      </c>
+      <c r="R18">
+        <v>0.813891490608</v>
+      </c>
+      <c r="S18">
+        <v>0.0001021447628723496</v>
+      </c>
+      <c r="T18">
+        <v>0.0001021447628723496</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.007919333333333334</v>
+      </c>
+      <c r="H19">
+        <v>0.023758</v>
+      </c>
+      <c r="I19">
+        <v>0.0002321218224722766</v>
+      </c>
+      <c r="J19">
+        <v>0.0002321218224722766</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.142336</v>
+      </c>
+      <c r="N19">
+        <v>0.427008</v>
+      </c>
+      <c r="O19">
+        <v>0.005485036407371031</v>
+      </c>
+      <c r="P19">
+        <v>0.005485036407371031</v>
+      </c>
+      <c r="Q19">
+        <v>0.001127206229333333</v>
+      </c>
+      <c r="R19">
+        <v>0.010144856064</v>
+      </c>
+      <c r="S19">
+        <v>1.273196647205752E-06</v>
+      </c>
+      <c r="T19">
+        <v>1.273196647205752E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.007919333333333334</v>
+      </c>
+      <c r="H20">
+        <v>0.023758</v>
+      </c>
+      <c r="I20">
+        <v>0.0002321218224722766</v>
+      </c>
+      <c r="J20">
+        <v>0.0002321218224722766</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.3596363333333333</v>
+      </c>
+      <c r="N20">
+        <v>1.078909</v>
+      </c>
+      <c r="O20">
+        <v>0.01385888588794653</v>
+      </c>
+      <c r="P20">
+        <v>0.01385888588794653</v>
+      </c>
+      <c r="Q20">
+        <v>0.002848080002444444</v>
+      </c>
+      <c r="R20">
+        <v>0.025632720022</v>
+      </c>
+      <c r="S20">
+        <v>3.216949849745463E-06</v>
+      </c>
+      <c r="T20">
+        <v>3.216949849745463E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.007919333333333334</v>
+      </c>
+      <c r="H21">
+        <v>0.023758</v>
+      </c>
+      <c r="I21">
+        <v>0.0002321218224722766</v>
+      </c>
+      <c r="J21">
+        <v>0.0002321218224722766</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.2388176666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.716453</v>
+      </c>
+      <c r="O21">
+        <v>0.009203037856832184</v>
+      </c>
+      <c r="P21">
+        <v>0.009203037856832184</v>
+      </c>
+      <c r="Q21">
+        <v>0.001891276708222223</v>
+      </c>
+      <c r="R21">
+        <v>0.017021490374</v>
+      </c>
+      <c r="S21">
+        <v>2.136225919609241E-06</v>
+      </c>
+      <c r="T21">
+        <v>2.136225919609241E-06</v>
       </c>
     </row>
   </sheetData>
